--- a/public/excel/StudentImport.xlsx
+++ b/public/excel/StudentImport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>StudentID</t>
   </si>
@@ -42,6 +42,36 @@
   </si>
   <si>
     <t>2024-1235</t>
+  </si>
+  <si>
+    <t>YearLvl</t>
+  </si>
+  <si>
+    <t>2024-1236</t>
+  </si>
+  <si>
+    <t>2024-1237</t>
+  </si>
+  <si>
+    <t>2024-1238</t>
+  </si>
+  <si>
+    <t>test1@email.com</t>
+  </si>
+  <si>
+    <t>test2@email.com</t>
+  </si>
+  <si>
+    <t>test3@email.com</t>
+  </si>
+  <si>
+    <t>Test Name 1</t>
+  </si>
+  <si>
+    <t>Test Name 2</t>
+  </si>
+  <si>
+    <t>Test Name 3</t>
   </si>
 </sst>
 </file>
@@ -370,20 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,8 +423,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -402,12 +435,60 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
